--- a/Geology/lb1_2.xlsx
+++ b/Geology/lb1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\1.1\Geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE799F7E-782D-436E-B7F6-46DBDC9FE245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3900CA5D-62C8-4E64-8480-73DA964C61F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{36C7CB11-A68C-D34C-B9CA-04EF08CCCA1B}"/>
   </bookViews>
@@ -311,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +348,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -361,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -391,6 +409,24 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5618,6 +5654,1543 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.4577934986454915E-2"/>
+          <c:y val="1.4275554736944432E-2"/>
+          <c:w val="0.96542206501354511"/>
+          <c:h val="0.93842550382956513"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000024-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000027-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002A-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002C-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002D-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002E-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000030-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000031-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000032-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000033-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000034-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000035-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000036-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000038-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000039-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003A-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003C-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003D-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003E-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003F-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000040-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000041-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000042-A3A9-40B6-A4A4-990ACF30A4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="309898976"/>
+        <c:axId val="561202208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="309898976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561202208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="561202208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="31"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309898976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5659,6 +7232,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6730,6 +8343,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6799,6 +8928,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47856</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C37D5B1-6E96-4C87-8F6A-E79ED5AB5D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7932,8 +10104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3761BC35-1DCF-B949-B442-4A532CF834FD}">
   <dimension ref="A1:CL67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15160,8 +17332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A85E42-11A8-4E5A-998B-07DD67DF85F2}">
   <dimension ref="A1:AN521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K518" sqref="K518"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15291,7 +17463,7 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -15434,7 +17606,7 @@
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -15573,7 +17745,7 @@
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -15712,7 +17884,7 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -15851,7 +18023,7 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -15990,7 +18162,7 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="2">
@@ -16129,7 +18301,7 @@
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -16268,7 +18440,7 @@
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" s="2">
@@ -16407,7 +18579,7 @@
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="2">
@@ -16546,7 +18718,7 @@
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -16685,7 +18857,7 @@
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="2">
@@ -16824,7 +18996,7 @@
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="2">
@@ -16963,7 +19135,7 @@
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="2">
@@ -17102,7 +19274,7 @@
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -17241,7 +19413,7 @@
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
       <c r="B16" s="2">
@@ -17380,7 +19552,7 @@
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="B17" s="2">
@@ -17519,7 +19691,7 @@
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
       <c r="B18" s="2">
@@ -17658,7 +19830,7 @@
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="20">
         <v>18</v>
       </c>
       <c r="B19" s="2">
@@ -17797,7 +19969,7 @@
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="2">
@@ -17936,7 +20108,7 @@
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="2">
@@ -18075,7 +20247,7 @@
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="2">
@@ -18214,7 +20386,7 @@
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="2">
@@ -18353,7 +20525,7 @@
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
       <c r="B24" s="2">
@@ -18492,7 +20664,7 @@
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
       <c r="B25" s="2">
@@ -18631,7 +20803,7 @@
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
       <c r="B26" s="2">
@@ -18770,7 +20942,7 @@
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
       <c r="B27" s="2">
@@ -18909,7 +21081,7 @@
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
       <c r="B28" s="2">
@@ -19048,7 +21220,7 @@
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
       <c r="B29" s="2">
@@ -19187,7 +21359,7 @@
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
       <c r="B30" s="2">
@@ -47095,8 +49267,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="28">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -47124,6 +49296,7 @@
     <tablePart r:id="rId27"/>
     <tablePart r:id="rId28"/>
     <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>